--- a/SF-36/SF-36 Guide Rules.xlsx
+++ b/SF-36/SF-36 Guide Rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MatthiasQ.MATTQ\Desktop\R Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8B891-98C7-4CD9-8DA8-12701F961158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C3D8B891-98C7-4CD9-8DA8-12701F961158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5792BAF1-796A-488F-8047-EA7B34FDC957}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{263FC5F0-2C70-4952-A662-0D1520AC672E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Social Functioning (SF)</t>
   </si>
@@ -275,6 +275,9 @@
   <si>
     <t>Health Transition</t>
   </si>
+  <si>
+    <t>By Matthias Q.</t>
+  </si>
 </sst>
 </file>
 
@@ -331,13 +334,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +350,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13477,10 +13483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9663D558-EA45-4443-B158-E72E101CA432}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13493,75 +13499,63 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4</v>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -13570,18 +13564,18 @@
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -13590,18 +13584,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -13610,18 +13604,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -13630,18 +13624,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -13650,18 +13644,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -13670,18 +13664,18 @@
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -13690,18 +13684,18 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -13710,18 +13704,18 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -13730,57 +13724,57 @@
         <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>16</v>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>14</v>
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -13789,18 +13783,18 @@
         <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -13809,18 +13803,18 @@
         <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -13829,57 +13823,57 @@
         <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1">
-        <v>22</v>
+      <c r="A19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="6">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -13888,57 +13882,57 @@
         <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>25</v>
-      </c>
-      <c r="F21" s="4">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="3">
         <v>5</v>
       </c>
-      <c r="F22" s="1">
-        <v>2</v>
+      <c r="E22" s="3">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -13947,18 +13941,18 @@
         <v>5</v>
       </c>
       <c r="F23" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -13967,18 +13961,18 @@
         <v>5</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -13987,18 +13981,18 @@
         <v>5</v>
       </c>
       <c r="F25" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -14007,57 +14001,57 @@
         <v>5</v>
       </c>
       <c r="F26" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4">
-        <v>20</v>
-      </c>
-      <c r="F27" s="4">
-        <v>16</v>
-      </c>
-      <c r="G27">
-        <v>16</v>
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>24</v>
+      <c r="A28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -14066,18 +14060,18 @@
         <v>5</v>
       </c>
       <c r="F29" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -14086,18 +14080,18 @@
         <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -14106,57 +14100,57 @@
         <v>5</v>
       </c>
       <c r="F31" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>8</v>
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="6">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1">
-        <v>21</v>
+      <c r="A33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="6">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="5">
+        <v>6</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -14165,57 +14159,57 @@
         <v>5</v>
       </c>
       <c r="F34" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4">
-        <v>15</v>
-      </c>
-      <c r="F35" s="4">
-        <v>12</v>
-      </c>
-      <c r="G35">
-        <v>12</v>
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1">
-        <v>18</v>
+      <c r="A36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -14224,18 +14218,18 @@
         <v>5</v>
       </c>
       <c r="F37" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -14244,158 +14238,179 @@
         <v>5</v>
       </c>
       <c r="F38" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>5</v>
       </c>
-      <c r="E39" s="4">
-        <v>25</v>
-      </c>
-      <c r="F39" s="4">
-        <v>20</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="A40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="3">
         <v>5</v>
       </c>
-      <c r="F40" s="9">
+      <c r="E40" s="3">
         <v>25</v>
+      </c>
+      <c r="F40" s="3">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="8">
+        <v>74</v>
+      </c>
+      <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>5</v>
       </c>
-      <c r="F41" s="9">
-        <v>26</v>
+      <c r="F41" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="8">
+        <v>75</v>
+      </c>
+      <c r="D42" s="7">
         <v>1</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>5</v>
       </c>
-      <c r="F42" s="9">
-        <v>27</v>
+      <c r="F42" s="8">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="8">
+        <v>76</v>
+      </c>
+      <c r="D43" s="7">
         <v>1</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>5</v>
       </c>
-      <c r="F43" s="9">
-        <v>29</v>
+      <c r="F43" s="8">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>73</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="7">
         <v>1</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="7">
         <v>5</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>1</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C47" s="5">
         <v>2</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="7">
         <v>1</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="7">
         <v>5</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="8">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SF-36/SF-36 Guide Rules.xlsx
+++ b/SF-36/SF-36 Guide Rules.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C3D8B891-98C7-4CD9-8DA8-12701F961158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5792BAF1-796A-488F-8047-EA7B34FDC957}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C3D8B891-98C7-4CD9-8DA8-12701F961158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65A0E13E-CD16-4820-8226-73323E5638FA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{263FC5F0-2C70-4952-A662-0D1520AC672E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{263FC5F0-2C70-4952-A662-0D1520AC672E}"/>
   </bookViews>
   <sheets>
     <sheet name="Items Checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Measurement Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Measurement Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13485,7 +13486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9663D558-EA45-4443-B158-E72E101CA432}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -14418,6 +14419,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00387B13-F659-42CD-A7AA-29D282F4BCEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07316E14-A08B-414B-BBCD-24218D97F0DC}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/SF-36/SF-36 Guide Rules.xlsx
+++ b/SF-36/SF-36 Guide Rules.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C3D8B891-98C7-4CD9-8DA8-12701F961158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65A0E13E-CD16-4820-8226-73323E5638FA}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C3D8B891-98C7-4CD9-8DA8-12701F961158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24A4EB0D-9C1D-466D-8039-712E1DF8B244}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{263FC5F0-2C70-4952-A662-0D1520AC672E}"/>
   </bookViews>
   <sheets>
     <sheet name="Items Checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Measurement Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Cheat Code" sheetId="3" r:id="rId2"/>
+    <sheet name="Examples and Ranges" sheetId="4" r:id="rId3"/>
+    <sheet name="Measurement Model" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="172">
   <si>
     <t>Social Functioning (SF)</t>
   </si>
@@ -278,13 +279,286 @@
   </si>
   <si>
     <t>By Matthias Q.</t>
+  </si>
+  <si>
+    <t>$n$ items</t>
+  </si>
+  <si>
+    <t>$k$ items are missing, but $k \le n/2$</t>
+  </si>
+  <si>
+    <t>If $k$ = 0, Answer = Algebraic Sum</t>
+  </si>
+  <si>
+    <t>If K &gt; 2, Answer = Missing</t>
+  </si>
+  <si>
+    <t>If 0≤ k ≤ 2, Answer = look below</t>
+  </si>
+  <si>
+    <t>Answer = $\displaystyle \sum x_{i} + \frac {k\sum x_{i}}{n-k} =&gt; \frac {n \sum x_{i}}{n-k}?$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   $= \\displaystyle \\frac {n-k\\sum x_{i}}{n-k} + \\frac {k \\sum x_{i}}{n-k}$</t>
+  </si>
+  <si>
+    <t>$= \displaystyle \frac {n\sum x_{i}-k\sum x_{i} + k \sum x_{i}}{n-k}$</t>
+  </si>
+  <si>
+    <t>$= \displaystyle \frac {n\sum x_{i}}{n-k}$</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>[., ., 3, 1] = 8</t>
+  </si>
+  <si>
+    <t>$k=2$</t>
+  </si>
+  <si>
+    <t>$n = 4$</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Score Range</t>
+  </si>
+  <si>
+    <t>Min. Score</t>
+  </si>
+  <si>
+    <t>Max. Score</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>In general, would you say your health is:</t>
+  </si>
+  <si>
+    <t>[1-5]</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Compared to one year ago:</t>
+  </si>
+  <si>
+    <t>Q3a</t>
+  </si>
+  <si>
+    <t>Vigorous activities:</t>
+  </si>
+  <si>
+    <t>Q3b</t>
+  </si>
+  <si>
+    <t>Moderate activities:</t>
+  </si>
+  <si>
+    <t>Q3c</t>
+  </si>
+  <si>
+    <t>Lifting or carrying groceries:</t>
+  </si>
+  <si>
+    <t>Q3d</t>
+  </si>
+  <si>
+    <t>Climbing several flights of stairs</t>
+  </si>
+  <si>
+    <t>Q3e</t>
+  </si>
+  <si>
+    <t>Climbing one flight of stairs</t>
+  </si>
+  <si>
+    <t>Q3f</t>
+  </si>
+  <si>
+    <t>Bending, kneeling, or stooping</t>
+  </si>
+  <si>
+    <t>Q3g</t>
+  </si>
+  <si>
+    <t>Walking more than a mile</t>
+  </si>
+  <si>
+    <t>Q3h</t>
+  </si>
+  <si>
+    <t>Walking several blocks</t>
+  </si>
+  <si>
+    <t>Q3i</t>
+  </si>
+  <si>
+    <t>Walking one block</t>
+  </si>
+  <si>
+    <t>Q3j</t>
+  </si>
+  <si>
+    <t>Bathing or dressing yourself</t>
+  </si>
+  <si>
+    <t>Q4a</t>
+  </si>
+  <si>
+    <t>Cut down the amount of time spent on work</t>
+  </si>
+  <si>
+    <t>Q4b</t>
+  </si>
+  <si>
+    <t>Accomplished less than you would like</t>
+  </si>
+  <si>
+    <t>Q4c</t>
+  </si>
+  <si>
+    <t>Were limited in the kind of work or other activities</t>
+  </si>
+  <si>
+    <t>Q4d</t>
+  </si>
+  <si>
+    <t>Had difficulty in performing the work</t>
+  </si>
+  <si>
+    <t>Q5a</t>
+  </si>
+  <si>
+    <t>Q5b</t>
+  </si>
+  <si>
+    <t>Q5c</t>
+  </si>
+  <si>
+    <t>Didn't do work or other activities as carefully as usual</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>During the past 4 weeks, to what extent has your physical health or emotional problems interefered with your normal social activites</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>How much bodily pain have you had during the past 4 weeks</t>
+  </si>
+  <si>
+    <t>[1-6]</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>During the past 4 weeks, how much did pain interfere with your normal work</t>
+  </si>
+  <si>
+    <t>[1-5 if no 7, 1-6 if yes 7]</t>
+  </si>
+  <si>
+    <t>Q9a</t>
+  </si>
+  <si>
+    <t>Did you feel full of pep:</t>
+  </si>
+  <si>
+    <t>Q9b</t>
+  </si>
+  <si>
+    <t>Have you been a very nervous person</t>
+  </si>
+  <si>
+    <t>Q9c</t>
+  </si>
+  <si>
+    <t>Have you felt so down in the dumps that nothing could cheer you up</t>
+  </si>
+  <si>
+    <t>Q9d</t>
+  </si>
+  <si>
+    <t>Have you felt calm and peaceful</t>
+  </si>
+  <si>
+    <t>Q9e</t>
+  </si>
+  <si>
+    <t>Did you have a lot of energy</t>
+  </si>
+  <si>
+    <t>Q9f</t>
+  </si>
+  <si>
+    <t>Have you felt downhearted and blue</t>
+  </si>
+  <si>
+    <t>Q9g</t>
+  </si>
+  <si>
+    <t>Did you feel worn out</t>
+  </si>
+  <si>
+    <t>Q9h</t>
+  </si>
+  <si>
+    <t>Have you been a happy person</t>
+  </si>
+  <si>
+    <t>Q9i</t>
+  </si>
+  <si>
+    <t>Did you feel tired</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>During the past 4 weeks, how much of the time has your physical health or emotional problems interfered with your social activites</t>
+  </si>
+  <si>
+    <t>Q11a</t>
+  </si>
+  <si>
+    <t>I seem to get sick a little easier than other people</t>
+  </si>
+  <si>
+    <t>Q11b</t>
+  </si>
+  <si>
+    <t>I am as healthy as anybody I know</t>
+  </si>
+  <si>
+    <t>Q11c</t>
+  </si>
+  <si>
+    <t>I expect my health to get worse</t>
+  </si>
+  <si>
+    <t>Q11d</t>
+  </si>
+  <si>
+    <t>My health is excellent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +581,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -335,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -351,6 +630,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13490,7 +13772,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
@@ -13500,15 +13782,15 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="21">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13531,12 +13813,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3">
         <v>10</v>
       </c>
@@ -13548,7 +13830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13568,7 +13850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13588,7 +13870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13608,7 +13890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13628,7 +13910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13648,7 +13930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13668,7 +13950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13688,7 +13970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13708,7 +13990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13728,7 +14010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13748,12 +14030,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="3">
         <v>4</v>
       </c>
@@ -13767,7 +14049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1</v>
       </c>
@@ -13787,7 +14069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2</v>
       </c>
@@ -13807,7 +14089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>3</v>
       </c>
@@ -13827,7 +14109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>4</v>
       </c>
@@ -13847,12 +14129,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="3">
         <v>2</v>
       </c>
@@ -13866,7 +14148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1</v>
       </c>
@@ -13886,7 +14168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13906,12 +14188,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3">
         <v>5</v>
       </c>
@@ -13925,7 +14207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1</v>
       </c>
@@ -13945,7 +14227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2</v>
       </c>
@@ -13965,7 +14247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>3</v>
       </c>
@@ -13985,7 +14267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>4</v>
       </c>
@@ -14005,7 +14287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>5</v>
       </c>
@@ -14025,12 +14307,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="3">
         <v>4</v>
       </c>
@@ -14044,7 +14326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1</v>
       </c>
@@ -14064,7 +14346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2</v>
       </c>
@@ -14084,7 +14366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>3</v>
       </c>
@@ -14104,7 +14386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>4</v>
       </c>
@@ -14124,12 +14406,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="3">
         <v>2</v>
       </c>
@@ -14143,7 +14425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>1</v>
       </c>
@@ -14163,7 +14445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>2</v>
       </c>
@@ -14183,12 +14465,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="3">
         <v>3</v>
       </c>
@@ -14202,7 +14484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1</v>
       </c>
@@ -14222,7 +14504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>2</v>
       </c>
@@ -14242,7 +14524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>3</v>
       </c>
@@ -14262,12 +14544,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="3">
         <v>5</v>
       </c>
@@ -14281,7 +14563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>1</v>
       </c>
@@ -14301,7 +14583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>2</v>
       </c>
@@ -14321,7 +14603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>3</v>
       </c>
@@ -14341,7 +14623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>4</v>
       </c>
@@ -14361,7 +14643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>5</v>
       </c>
@@ -14381,7 +14663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>1</v>
       </c>
@@ -14420,17 +14702,841 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00387B13-F659-42CD-A7AA-29D282F4BCEA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6C5C6A-B8D4-4C9C-8AD5-45CF265BD67F}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07316E14-A08B-414B-BBCD-24218D97F0DC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14438,7 +15544,7 @@
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
